--- a/outputs/results_res3.xlsx
+++ b/outputs/results_res3.xlsx
@@ -1,25 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thesis\gis\scripts\thesis_code\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23FEB41-45E0-41A1-BC4A-A56E47D8BC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6768" yWindow="1656" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="res3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Std. error</t>
+  </si>
+  <si>
+    <t>t value</t>
+  </si>
+  <si>
+    <t>Pr(&gt; t)</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>East_JLM_lines</t>
+  </si>
+  <si>
+    <t>intercity_sevice</t>
+  </si>
+  <si>
+    <t>innercity_sevice</t>
+  </si>
+  <si>
+    <t>passengersnumber_thousands</t>
+  </si>
+  <si>
+    <t>Directness_measurements</t>
+  </si>
+  <si>
+    <t>percent_problematic_trips</t>
+  </si>
+  <si>
+    <t>Settlements_lines</t>
+  </si>
+  <si>
+    <t>InJerusalem_lines</t>
+  </si>
+  <si>
+    <t>logSigma</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -27,7 +96,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -52,24 +121,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +185,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +254,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,228 +430,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Coefficient</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Estimate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Std. error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>t value</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Pr(&gt; t)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>(Intercept)</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>-18.08976106718072</v>
-      </c>
-      <c r="C2">
-        <v>11.90451291742209</v>
-      </c>
-      <c r="D2">
-        <v>-1.519571711389098</v>
-      </c>
-      <c r="E2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-18.089761067180721</v>
+      </c>
+      <c r="C2" s="2">
+        <v>11.904512917422091</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.1286186521448697</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>East_JLM_lines</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>-21.03029695372335</v>
-      </c>
-      <c r="C3">
+      <c r="I2" s="2">
+        <v>-1.5195717113890981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-21.030296953723351</v>
+      </c>
+      <c r="C3" s="2">
         <v>8.263901567721561</v>
       </c>
-      <c r="D3">
-        <v>-2.54483875217812</v>
-      </c>
-      <c r="E3">
-        <v>0.01093282107587135</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>intercity_sevice</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>15.72625944392625</v>
-      </c>
-      <c r="C4">
-        <v>8.253348018912915</v>
-      </c>
-      <c r="D4">
+      <c r="D3" s="2">
+        <v>1.093282107587135E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-2.5448387521781202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15.726259443926249</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.2533480189129147</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.6722899900500758E-2</v>
+      </c>
+      <c r="I4" s="2">
         <v>1.905439999366175</v>
       </c>
-      <c r="E4">
-        <v>0.05672289990050076</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>innercity_sevice</t>
-        </is>
-      </c>
-      <c r="B5">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
         <v>-11.89106164184218</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>8.117698452572661</v>
       </c>
-      <c r="D5">
-        <v>-1.464831652877382</v>
-      </c>
-      <c r="E5">
-        <v>0.1429668536804581</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>passengersnumber_thousands</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>2.326047875682956</v>
-      </c>
-      <c r="C6">
-        <v>0.2599529971206856</v>
-      </c>
-      <c r="D6">
-        <v>8.947955597538527</v>
-      </c>
-      <c r="E6">
-        <v>3.621266467290639E-19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Directness_measurements</t>
-        </is>
-      </c>
-      <c r="B7">
+      <c r="D5" s="2">
+        <v>0.14296685368045811</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-1.4648316528773819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.3260478756829559</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.25995299712068559</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.6212664672906389E-19</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8.9479555975385274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
         <v>38.41013150818732</v>
       </c>
-      <c r="C7">
-        <v>13.28341346826977</v>
-      </c>
-      <c r="D7">
-        <v>2.891585931578356</v>
-      </c>
-      <c r="E7">
-        <v>0.003833027542592822</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>percent_problematic_trips</t>
-        </is>
-      </c>
-      <c r="B8">
+      <c r="C7" s="2">
+        <v>13.283413468269771</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.8330275425928219E-3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.8915859315783559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
         <v>1.254125870738972</v>
       </c>
-      <c r="C8">
-        <v>0.3752760188040292</v>
-      </c>
-      <c r="D8">
-        <v>3.341875867090463</v>
-      </c>
-      <c r="E8">
-        <v>0.0008321426624003373</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Settlements_lines</t>
-        </is>
-      </c>
-      <c r="B9">
+      <c r="C8" s="2">
+        <v>0.37527601880402922</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8.3214266240033729E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.3418758670904629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
         <v>19.77656043385316</v>
       </c>
-      <c r="C9">
-        <v>7.579751009966224</v>
-      </c>
-      <c r="D9">
-        <v>2.609130617595483</v>
-      </c>
-      <c r="E9">
-        <v>0.009077258684040386</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>InJerusalem_lines</t>
-        </is>
-      </c>
-      <c r="B10">
+      <c r="C9" s="2">
+        <v>7.5797510099662242</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9.0772586840403863E-3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2.6091306175954831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
         <v>-13.36266375912246</v>
       </c>
-      <c r="C10">
-        <v>8.041186466443168</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="2">
+        <v>8.0411864664431683</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.6557369876266452E-2</v>
+      </c>
+      <c r="I10" s="2">
         <v>-1.661777626334926</v>
       </c>
-      <c r="E10">
-        <v>0.09655736987626645</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>logSigma</t>
-        </is>
-      </c>
-      <c r="B11">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
         <v>3.802641299654077</v>
       </c>
-      <c r="C11">
-        <v>0.03636771196212537</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="2">
+        <v>3.6367711962125369E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>104.5609166618533</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
